--- a/server/ex_thingiverse.xlsx
+++ b/server/ex_thingiverse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
   <si>
     <t>job_id</t>
   </si>
@@ -262,6 +262,42 @@
   </si>
   <si>
     <t>job_id, job_url, job_file_path, job_status, are the most important form</t>
+  </si>
+  <si>
+    <t>t_36</t>
+  </si>
+  <si>
+    <t>t_37</t>
+  </si>
+  <si>
+    <t>t_38</t>
+  </si>
+  <si>
+    <t>t_39</t>
+  </si>
+  <si>
+    <t>t_40</t>
+  </si>
+  <si>
+    <t>t_41</t>
+  </si>
+  <si>
+    <t>http://www.thingiverse.com/thing:36</t>
+  </si>
+  <si>
+    <t>http://www.thingiverse.com/thing:37</t>
+  </si>
+  <si>
+    <t>http://www.thingiverse.com/thing:38</t>
+  </si>
+  <si>
+    <t>http://www.thingiverse.com/thing:39</t>
+  </si>
+  <si>
+    <t>http://www.thingiverse.com/thing:40</t>
+  </si>
+  <si>
+    <t>http://www.thingiverse.com/thing:41</t>
   </si>
 </sst>
 </file>
@@ -652,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1635,20 +1671,65 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C39" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C40" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3:B36" r:id="rId2" display="http://www.thingiverse.com/thing:1"/>
+    <hyperlink ref="B37:B42" r:id="rId3" display="http://www.thingiverse.com/thing:1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
